--- a/teaching/traditional_assets/database/data/switzerland/switzerland_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/switzerland/switzerland_bank_money_center.xlsx
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0124</v>
+        <v>0.0225</v>
       </c>
       <c r="E2">
-        <v>0.0258</v>
+        <v>0.022</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>533.4</v>
+        <v>564.8</v>
       </c>
       <c r="L2">
-        <v>0.4044585987261147</v>
+        <v>0.4072979014927525</v>
       </c>
       <c r="M2">
-        <v>177.94</v>
+        <v>187.1255</v>
       </c>
       <c r="N2">
-        <v>0.01849515118128242</v>
+        <v>0.01791771994331457</v>
       </c>
       <c r="O2">
-        <v>0.3335958005249344</v>
+        <v>0.3313128541076488</v>
       </c>
       <c r="P2">
-        <v>177.94</v>
+        <v>187.1255</v>
       </c>
       <c r="Q2">
-        <v>0.01849515118128242</v>
+        <v>0.01791771994331457</v>
       </c>
       <c r="R2">
-        <v>0.3335958005249344</v>
+        <v>0.3313128541076488</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,55 +639,55 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>3734.9</v>
+        <v>15928</v>
       </c>
       <c r="V2">
-        <v>0.3882069245081022</v>
+        <v>1.52514458615803</v>
       </c>
       <c r="W2">
-        <v>0.07155185940687275</v>
+        <v>0.06794015595269186</v>
       </c>
       <c r="X2">
-        <v>0.09224379263415636</v>
+        <v>0.1045500447629817</v>
       </c>
       <c r="Y2">
-        <v>-0.0206919332272836</v>
+        <v>-0.03660988881028984</v>
       </c>
       <c r="Z2">
-        <v>0.0508488495968297</v>
+        <v>0.04209890373446754</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.03955188058267775</v>
+        <v>0.03406246657345421</v>
       </c>
       <c r="AC2">
-        <v>-0.03955188058267775</v>
+        <v>-0.03406246657345421</v>
       </c>
       <c r="AD2">
-        <v>28612.2</v>
+        <v>40068.3</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>28612.2</v>
+        <v>40068.3</v>
       </c>
       <c r="AG2">
-        <v>24877.3</v>
+        <v>24140.3</v>
       </c>
       <c r="AH2">
-        <v>0.7483620213898429</v>
+        <v>0.7932447601456291</v>
       </c>
       <c r="AI2">
-        <v>0.7787688178920694</v>
+        <v>0.8186543424028636</v>
       </c>
       <c r="AJ2">
-        <v>0.7211187830089686</v>
+        <v>0.6980213336263407</v>
       </c>
       <c r="AK2">
-        <v>0.7537342374278148</v>
+        <v>0.7311675213002141</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -704,7 +704,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Luzerner Kantonalbank AG (SWX:LUKN)</t>
+          <t>Graubündner Kantonalbank (SWX:GRKP)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0293</v>
+        <v>0.0225</v>
       </c>
       <c r="E3">
-        <v>0.0273</v>
+        <v>0.0197</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -731,82 +731,85 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>205.6</v>
+        <v>182.1</v>
       </c>
       <c r="L3">
-        <v>0.410953427943234</v>
+        <v>0.4243766021906315</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>105.078</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.02486052949109235</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0.5770345963756179</v>
       </c>
       <c r="P3">
-        <v>-0</v>
+        <v>105.078</v>
       </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>0.02486052949109235</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0.5770345963756179</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
       <c r="U3">
-        <v>0</v>
+        <v>8240.5</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1.949629734781271</v>
       </c>
       <c r="W3">
-        <v>0.07369703921428059</v>
+        <v>0.06794015595269186</v>
       </c>
       <c r="X3">
-        <v>0.1087573116081906</v>
+        <v>0.08057685426517866</v>
       </c>
       <c r="Y3">
-        <v>-0.03506027239391006</v>
+        <v>-0.0126366983124868</v>
       </c>
       <c r="Z3">
-        <v>0.04247930375716408</v>
+        <v>0.04257240086117092</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.03943673177897487</v>
+        <v>0.03374348947412184</v>
       </c>
       <c r="AC3">
-        <v>-0.03943673177897487</v>
+        <v>-0.03374348947412184</v>
       </c>
       <c r="AD3">
-        <v>14730</v>
+        <v>10674.1</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>14730</v>
+        <v>10674.1</v>
       </c>
       <c r="AG3">
-        <v>14730</v>
+        <v>2433.6</v>
       </c>
       <c r="AH3">
-        <v>0.8003086050832907</v>
+        <v>0.7163440889079782</v>
       </c>
       <c r="AI3">
-        <v>0.841646953957969</v>
+        <v>0.7879774401677223</v>
       </c>
       <c r="AJ3">
-        <v>0.8003086050832907</v>
+        <v>0.3653889464438539</v>
       </c>
       <c r="AK3">
-        <v>0.841646953957969</v>
+        <v>0.4586765177073713</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -823,7 +826,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Graubündner Kantonalbank (SWX:GRKP)</t>
+          <t>Luzerner Kantonalbank AG (SWX:LUKN)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -832,10 +835,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0124</v>
+        <v>0.04099999999999999</v>
       </c>
       <c r="E4">
-        <v>0.0258</v>
+        <v>0.0362</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -850,35 +853,32 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>182.4</v>
+        <v>230.8</v>
       </c>
       <c r="L4">
-        <v>0.4429334628460418</v>
+        <v>0.4110418521816563</v>
       </c>
       <c r="M4">
-        <v>102.09</v>
+        <v>-0</v>
       </c>
       <c r="N4">
-        <v>0.02670066692820714</v>
+        <v>-0</v>
       </c>
       <c r="O4">
-        <v>0.5597039473684211</v>
+        <v>-0</v>
       </c>
       <c r="P4">
-        <v>102.09</v>
+        <v>-0</v>
       </c>
       <c r="Q4">
-        <v>0.02670066692820714</v>
+        <v>-0</v>
       </c>
       <c r="R4">
-        <v>0.5597039473684211</v>
+        <v>-0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
       <c r="U4">
         <v>0</v>
       </c>
@@ -886,49 +886,49 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0.07155185940687275</v>
+        <v>0.08327920906401097</v>
       </c>
       <c r="X4">
-        <v>0.07335602096538343</v>
+        <v>0.1344863767999113</v>
       </c>
       <c r="Y4">
-        <v>-0.001804161558510681</v>
+        <v>-0.05120716773590035</v>
       </c>
       <c r="Z4">
-        <v>0.04225717771718886</v>
+        <v>0.03208314763390357</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.03955188058267775</v>
+        <v>0.03406246657345421</v>
       </c>
       <c r="AC4">
-        <v>-0.03955188058267775</v>
+        <v>-0.03406246657345421</v>
       </c>
       <c r="AD4">
-        <v>7423.1</v>
+        <v>20412.8</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>7423.1</v>
+        <v>20412.8</v>
       </c>
       <c r="AG4">
-        <v>7423.1</v>
+        <v>20412.8</v>
       </c>
       <c r="AH4">
-        <v>0.6600305870218555</v>
+        <v>0.8418621531558282</v>
       </c>
       <c r="AI4">
-        <v>0.7316570730168743</v>
+        <v>0.8628724087788712</v>
       </c>
       <c r="AJ4">
-        <v>0.6600305870218555</v>
+        <v>0.8418621531558282</v>
       </c>
       <c r="AK4">
-        <v>0.7316570730168743</v>
+        <v>0.8628724087788712</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -954,10 +954,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>-0.03759999999999999</v>
+        <v>-0.0229</v>
       </c>
       <c r="E5">
-        <v>0.0197</v>
+        <v>0.022</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -972,28 +972,28 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>145.4</v>
+        <v>151.9</v>
       </c>
       <c r="L5">
-        <v>0.3575116793705434</v>
+        <v>0.3834890179247665</v>
       </c>
       <c r="M5">
-        <v>75.84999999999999</v>
+        <v>82.0475</v>
       </c>
       <c r="N5">
-        <v>0.03574458058435438</v>
+        <v>0.03443756558237146</v>
       </c>
       <c r="O5">
-        <v>0.5216643741403025</v>
+        <v>0.5401415404871626</v>
       </c>
       <c r="P5">
-        <v>75.84999999999999</v>
+        <v>82.0475</v>
       </c>
       <c r="Q5">
-        <v>0.03574458058435438</v>
+        <v>0.03443756558237146</v>
       </c>
       <c r="R5">
-        <v>0.5216643741403025</v>
+        <v>0.5401415404871626</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1002,55 +1002,55 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>3734.9</v>
+        <v>7687.5</v>
       </c>
       <c r="V5">
-        <v>1.760084825636192</v>
+        <v>3.226652675760755</v>
       </c>
       <c r="W5">
-        <v>0.05791213605767317</v>
+        <v>0.0576645660921722</v>
       </c>
       <c r="X5">
-        <v>0.09224379263415636</v>
+        <v>0.1045500447629817</v>
       </c>
       <c r="Y5">
-        <v>-0.03433165657648319</v>
+        <v>-0.0468854786708095</v>
       </c>
       <c r="Z5">
-        <v>0.09215744034805466</v>
+        <v>0.07392131979695432</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.04021647065873604</v>
+        <v>0.0348421614283656</v>
       </c>
       <c r="AC5">
-        <v>-0.04021647065873604</v>
+        <v>-0.0348421614283656</v>
       </c>
       <c r="AD5">
-        <v>6459.1</v>
+        <v>8981.4</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>6459.1</v>
+        <v>8981.4</v>
       </c>
       <c r="AG5">
-        <v>2724.2</v>
+        <v>1293.9</v>
       </c>
       <c r="AH5">
-        <v>0.7527123562247264</v>
+        <v>0.7903448639991553</v>
       </c>
       <c r="AI5">
-        <v>0.7103141873687221</v>
+        <v>0.7649538799601401</v>
       </c>
       <c r="AJ5">
-        <v>0.5621311543064669</v>
+        <v>0.3519475573931019</v>
       </c>
       <c r="AK5">
-        <v>0.5083980292624665</v>
+        <v>0.3191977501480165</v>
       </c>
       <c r="AL5">
         <v>0</v>
